--- a/TribeBattleHistoricalData/2025-1-19/2025-01-19.xlsx
+++ b/TribeBattleHistoricalData/2025-1-19/2025-01-19.xlsx
@@ -456,7 +456,7 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="32" customWidth="1" min="2" max="2"/>
     <col width="9.5" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
     <col width="19.5" customWidth="1" min="5" max="5"/>
     <col width="49.5" customWidth="1" min="6" max="6"/>
     <col width="19.5" customWidth="1" min="7" max="7"/>
@@ -531,10 +531,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D2" s="2" t="n">
+        <v>234</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -575,10 +573,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D3" s="2" t="n">
+        <v>209</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
@@ -623,10 +619,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D4" s="2" t="n">
+        <v>203</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
@@ -667,10 +661,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D5" s="2" t="n">
+        <v>172</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
@@ -715,10 +707,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D6" s="2" t="n">
+        <v>187</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -759,10 +749,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D7" s="2" t="n">
+        <v>192</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
@@ -803,10 +791,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D8" s="2" t="n">
+        <v>165</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
@@ -851,10 +837,8 @@
           <t>长老</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D9" s="2" t="n">
+        <v>201</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -895,10 +879,8 @@
           <t>长老</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D10" s="3" t="n">
+        <v>217</v>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
@@ -939,10 +921,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D11" s="2" t="n">
+        <v>179</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
@@ -983,10 +963,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D12" s="2" t="n">
+        <v>244</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1027,10 +1005,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D13" s="2" t="n">
+        <v>213</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
@@ -1075,10 +1051,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D14" s="2" t="n">
+        <v>178</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
@@ -1123,10 +1097,8 @@
           <t>长老</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D15" s="2" t="n">
+        <v>199</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1171,10 +1143,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D16" s="2" t="n">
+        <v>210</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
@@ -1219,10 +1189,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D17" s="2" t="n">
+        <v>136</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
@@ -1263,10 +1231,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D18" s="2" t="n">
+        <v>188</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -1311,10 +1277,8 @@
           <t>长老</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D19" s="2" t="n">
+        <v>173</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
@@ -1359,10 +1323,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D20" s="2" t="n">
+        <v>193</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
@@ -1403,10 +1365,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D21" s="2" t="n">
+        <v>168</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1451,10 +1411,8 @@
           <t>长老</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D22" s="2" t="n">
+        <v>164</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
@@ -1499,10 +1457,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D23" s="2" t="n">
+        <v>159</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
@@ -1547,10 +1503,8 @@
           <t>长老</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D24" s="2" t="n">
+        <v>166</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
@@ -1587,11 +1541,7 @@
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
-      </c>
+      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="3" t="inlineStr">
         <is>
           <t>第 1 次进攻</t>
@@ -1627,11 +1577,7 @@
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
-      </c>
+      <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr">
         <is>
           <t>第 1 次进攻</t>
@@ -1671,10 +1617,8 @@
           <t>长老</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D27" s="2" t="n">
+        <v>136</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -1715,10 +1659,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D28" s="2" t="n">
+        <v>138</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
@@ -1759,10 +1701,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D29" s="2" t="n">
+        <v>150</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
@@ -1807,10 +1747,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D30" s="2" t="n">
+        <v>129</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
@@ -1855,10 +1793,8 @@
           <t>副首领</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>已退出</t>
-        </is>
+      <c r="D31" s="2" t="n">
+        <v>91</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
